--- a/Datos/Rankings.xlsx
+++ b/Datos/Rankings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="26">
   <si>
     <t>YEAR</t>
   </si>
@@ -70,12 +70,45 @@
   <si>
     <t>THELatino</t>
   </si>
+  <si>
+    <t>ARWUMundo</t>
+  </si>
+  <si>
+    <t>ARWULatino</t>
+  </si>
+  <si>
+    <t>MERCOEmpresas</t>
+  </si>
+  <si>
+    <t>MERCOTalento</t>
+  </si>
+  <si>
+    <t>MERCORGC</t>
+  </si>
+  <si>
+    <t>MERCOSector</t>
+  </si>
+  <si>
+    <t>USapiens</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t>Medellín</t>
+  </si>
+  <si>
+    <t>Palmira</t>
+  </si>
+  <si>
+    <t>USAPIENS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +119,20 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,12 +158,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -399,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95:B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1212,9 +1263,2287 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F41" s="2"/>
+      <c r="A41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="4">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>2015</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>2016</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="2">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>2017</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>2018</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>2019</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="2">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>2020</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="2">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>2013</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>2014</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>2015</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>2016</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>2017</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>2018</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>2019</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>2020</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>2011</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>2012</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>2013</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>2014</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>2015</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>2016</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>2017</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>2018</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>2019</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>2020</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>2011</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>2012</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>2013</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>2014</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>2015</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>2016</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>2017</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>2018</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>2019</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>2020</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>2013</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>2014</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>2015</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>2016</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>2017</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>2018</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>2019</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>2020</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>2021</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>2011</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>2012</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>2013</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>2014</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>2015</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>2016</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>2017</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>2018</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>2019</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>2020</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95">
+        <v>2011</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96">
+        <v>2011</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97">
+        <v>2012</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98">
+        <v>2012</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99">
+        <v>2013</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100">
+        <v>2013</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>22</v>
+      </c>
+      <c r="F100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101">
+        <v>2014</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102">
+        <v>2014</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>22</v>
+      </c>
+      <c r="F102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103">
+        <v>2015</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>22</v>
+      </c>
+      <c r="F103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104">
+        <v>2015</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>22</v>
+      </c>
+      <c r="F104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105">
+        <v>2016</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106">
+        <v>2016</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>22</v>
+      </c>
+      <c r="F106" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107">
+        <v>2017</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>22</v>
+      </c>
+      <c r="F107" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108">
+        <v>2017</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109">
+        <v>2018</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110">
+        <v>2018</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111">
+        <v>2019</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112">
+        <v>2019</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>22</v>
+      </c>
+      <c r="F112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113">
+        <v>2020</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>22</v>
+      </c>
+      <c r="F113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114">
+        <v>2020</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>22</v>
+      </c>
+      <c r="F114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115">
+        <v>2011</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>23</v>
+      </c>
+      <c r="F115" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116">
+        <v>2011</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>23</v>
+      </c>
+      <c r="F116" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117">
+        <v>2012</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>23</v>
+      </c>
+      <c r="F117" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118">
+        <v>2012</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119">
+        <v>2013</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120">
+        <v>2013</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121">
+        <v>2014</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122">
+        <v>2014</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122" t="s">
+        <v>23</v>
+      </c>
+      <c r="F122" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123">
+        <v>2015</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124">
+        <v>2015</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>23</v>
+      </c>
+      <c r="F124" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125">
+        <v>2016</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>23</v>
+      </c>
+      <c r="F125" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126">
+        <v>2016</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126" t="s">
+        <v>23</v>
+      </c>
+      <c r="F126" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127">
+        <v>2017</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>23</v>
+      </c>
+      <c r="F127" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128">
+        <v>2017</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128" t="s">
+        <v>23</v>
+      </c>
+      <c r="F128" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129">
+        <v>2018</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>23</v>
+      </c>
+      <c r="F129" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130">
+        <v>2018</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130" t="s">
+        <v>23</v>
+      </c>
+      <c r="F130" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131">
+        <v>2019</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>23</v>
+      </c>
+      <c r="F131" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132">
+        <v>2019</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132" t="s">
+        <v>23</v>
+      </c>
+      <c r="F132" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133">
+        <v>2020</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>23</v>
+      </c>
+      <c r="F133" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134">
+        <v>2020</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134" t="s">
+        <v>23</v>
+      </c>
+      <c r="F134" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135">
+        <v>2011</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>24</v>
+      </c>
+      <c r="F135" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136">
+        <v>2011</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136" t="s">
+        <v>24</v>
+      </c>
+      <c r="F136" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137">
+        <v>2012</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>24</v>
+      </c>
+      <c r="F137" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138">
+        <v>2012</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138" t="s">
+        <v>24</v>
+      </c>
+      <c r="F138" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139">
+        <v>2013</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>24</v>
+      </c>
+      <c r="F139" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140">
+        <v>2013</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140" t="s">
+        <v>24</v>
+      </c>
+      <c r="F140" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141">
+        <v>2014</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>24</v>
+      </c>
+      <c r="F141" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142">
+        <v>2014</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142" t="s">
+        <v>24</v>
+      </c>
+      <c r="F142" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143">
+        <v>2015</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>24</v>
+      </c>
+      <c r="F143" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144">
+        <v>2015</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144" t="s">
+        <v>24</v>
+      </c>
+      <c r="F144" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145">
+        <v>2016</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>24</v>
+      </c>
+      <c r="F145" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146">
+        <v>2016</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146" t="s">
+        <v>24</v>
+      </c>
+      <c r="F146" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>21</v>
+      </c>
+      <c r="B147" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147">
+        <v>2017</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>24</v>
+      </c>
+      <c r="F147" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>21</v>
+      </c>
+      <c r="B148" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148">
+        <v>2017</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148" t="s">
+        <v>24</v>
+      </c>
+      <c r="F148" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149">
+        <v>2018</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>24</v>
+      </c>
+      <c r="F149" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>21</v>
+      </c>
+      <c r="B150" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150">
+        <v>2018</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150" t="s">
+        <v>24</v>
+      </c>
+      <c r="F150" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>21</v>
+      </c>
+      <c r="B151" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151">
+        <v>2019</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>24</v>
+      </c>
+      <c r="F151" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>21</v>
+      </c>
+      <c r="B152" t="s">
+        <v>25</v>
+      </c>
+      <c r="C152">
+        <v>2019</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152" t="s">
+        <v>24</v>
+      </c>
+      <c r="F152" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153" t="s">
+        <v>25</v>
+      </c>
+      <c r="C153">
+        <v>2020</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>24</v>
+      </c>
+      <c r="F153" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>21</v>
+      </c>
+      <c r="B154" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154">
+        <v>2020</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154" t="s">
+        <v>24</v>
+      </c>
+      <c r="F154" s="2">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Datos/Rankings.xlsx
+++ b/Datos/Rankings.xlsx
@@ -92,16 +92,16 @@
     <t>USapiens</t>
   </si>
   <si>
-    <t>Bogotá</t>
+    <t>USAPIENS</t>
   </si>
   <si>
-    <t>Medellín</t>
+    <t>Puesto Bogotá</t>
   </si>
   <si>
-    <t>Palmira</t>
+    <t>Puesto Medellín</t>
   </si>
   <si>
-    <t>USAPIENS</t>
+    <t>Puesto Palmira</t>
   </si>
 </sst>
 </file>
@@ -452,14 +452,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95:B154"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I149" sqref="I149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2347,7 +2347,7 @@
         <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C95">
         <v>2011</v>
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F95" s="2">
         <v>1</v>
@@ -2367,7 +2367,7 @@
         <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C96">
         <v>2011</v>
@@ -2376,7 +2376,7 @@
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F96" s="2">
         <v>1</v>
@@ -2387,7 +2387,7 @@
         <v>21</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C97">
         <v>2012</v>
@@ -2396,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F97" s="2">
         <v>1</v>
@@ -2407,7 +2407,7 @@
         <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C98">
         <v>2012</v>
@@ -2416,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F98" s="2">
         <v>1</v>
@@ -2427,7 +2427,7 @@
         <v>21</v>
       </c>
       <c r="B99" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C99">
         <v>2013</v>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F99" s="2">
         <v>1</v>
@@ -2447,7 +2447,7 @@
         <v>21</v>
       </c>
       <c r="B100" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C100">
         <v>2013</v>
@@ -2456,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F100" s="2">
         <v>1</v>
@@ -2467,7 +2467,7 @@
         <v>21</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C101">
         <v>2014</v>
@@ -2476,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F101" s="2">
         <v>1</v>
@@ -2487,7 +2487,7 @@
         <v>21</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C102">
         <v>2014</v>
@@ -2496,7 +2496,7 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F102" s="2">
         <v>1</v>
@@ -2507,7 +2507,7 @@
         <v>21</v>
       </c>
       <c r="B103" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C103">
         <v>2015</v>
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F103" s="2">
         <v>1</v>
@@ -2527,7 +2527,7 @@
         <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C104">
         <v>2015</v>
@@ -2536,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F104" s="2">
         <v>1</v>
@@ -2547,7 +2547,7 @@
         <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C105">
         <v>2016</v>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F105" s="2">
         <v>1</v>
@@ -2567,7 +2567,7 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C106">
         <v>2016</v>
@@ -2576,7 +2576,7 @@
         <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F106" s="2">
         <v>1</v>
@@ -2587,7 +2587,7 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C107">
         <v>2017</v>
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F107" s="2">
         <v>1</v>
@@ -2607,7 +2607,7 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C108">
         <v>2017</v>
@@ -2616,7 +2616,7 @@
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F108" s="2">
         <v>1</v>
@@ -2627,7 +2627,7 @@
         <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C109">
         <v>2018</v>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F109" s="2">
         <v>1</v>
@@ -2647,7 +2647,7 @@
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C110">
         <v>2018</v>
@@ -2656,7 +2656,7 @@
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F110" s="2">
         <v>1</v>
@@ -2667,7 +2667,7 @@
         <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C111">
         <v>2019</v>
@@ -2676,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F111" s="2">
         <v>1</v>
@@ -2687,7 +2687,7 @@
         <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C112">
         <v>2019</v>
@@ -2696,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F112" s="2">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C113">
         <v>2020</v>
@@ -2716,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F113" s="2">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C114">
         <v>2020</v>
@@ -2736,7 +2736,7 @@
         <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F114" s="2">
         <v>1</v>
@@ -2747,7 +2747,7 @@
         <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C115">
         <v>2011</v>
@@ -2756,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F115" s="2">
         <v>6</v>
@@ -2767,7 +2767,7 @@
         <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C116">
         <v>2011</v>
@@ -2776,7 +2776,7 @@
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F116" s="2">
         <v>6</v>
@@ -2787,7 +2787,7 @@
         <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C117">
         <v>2012</v>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F117" s="2">
         <v>6</v>
@@ -2807,7 +2807,7 @@
         <v>21</v>
       </c>
       <c r="B118" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C118">
         <v>2012</v>
@@ -2816,7 +2816,7 @@
         <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F118" s="2">
         <v>6</v>
@@ -2827,7 +2827,7 @@
         <v>21</v>
       </c>
       <c r="B119" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C119">
         <v>2013</v>
@@ -2836,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F119" s="2">
         <v>6</v>
@@ -2847,7 +2847,7 @@
         <v>21</v>
       </c>
       <c r="B120" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C120">
         <v>2013</v>
@@ -2856,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="E120" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F120" s="2">
         <v>6</v>
@@ -2867,7 +2867,7 @@
         <v>21</v>
       </c>
       <c r="B121" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C121">
         <v>2014</v>
@@ -2876,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F121" s="2">
         <v>6</v>
@@ -2887,7 +2887,7 @@
         <v>21</v>
       </c>
       <c r="B122" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C122">
         <v>2014</v>
@@ -2896,7 +2896,7 @@
         <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F122" s="2">
         <v>6</v>
@@ -2907,7 +2907,7 @@
         <v>21</v>
       </c>
       <c r="B123" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C123">
         <v>2015</v>
@@ -2916,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F123" s="2">
         <v>6</v>
@@ -2927,7 +2927,7 @@
         <v>21</v>
       </c>
       <c r="B124" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C124">
         <v>2015</v>
@@ -2936,7 +2936,7 @@
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F124" s="2">
         <v>6</v>
@@ -2947,7 +2947,7 @@
         <v>21</v>
       </c>
       <c r="B125" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C125">
         <v>2016</v>
@@ -2956,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F125" s="2">
         <v>6</v>
@@ -2967,7 +2967,7 @@
         <v>21</v>
       </c>
       <c r="B126" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C126">
         <v>2016</v>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F126" s="2">
         <v>6</v>
@@ -2987,7 +2987,7 @@
         <v>21</v>
       </c>
       <c r="B127" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C127">
         <v>2017</v>
@@ -2996,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F127" s="2">
         <v>6</v>
@@ -3007,7 +3007,7 @@
         <v>21</v>
       </c>
       <c r="B128" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C128">
         <v>2017</v>
@@ -3016,7 +3016,7 @@
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F128" s="2">
         <v>6</v>
@@ -3027,7 +3027,7 @@
         <v>21</v>
       </c>
       <c r="B129" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C129">
         <v>2018</v>
@@ -3036,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F129" s="2">
         <v>6</v>
@@ -3047,7 +3047,7 @@
         <v>21</v>
       </c>
       <c r="B130" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C130">
         <v>2018</v>
@@ -3056,7 +3056,7 @@
         <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F130" s="2">
         <v>6</v>
@@ -3067,7 +3067,7 @@
         <v>21</v>
       </c>
       <c r="B131" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C131">
         <v>2019</v>
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F131" s="2">
         <v>6</v>
@@ -3087,7 +3087,7 @@
         <v>21</v>
       </c>
       <c r="B132" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C132">
         <v>2019</v>
@@ -3096,7 +3096,7 @@
         <v>2</v>
       </c>
       <c r="E132" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F132" s="2">
         <v>6</v>
@@ -3107,7 +3107,7 @@
         <v>21</v>
       </c>
       <c r="B133" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C133">
         <v>2020</v>
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F133" s="2">
         <v>6</v>
@@ -3127,7 +3127,7 @@
         <v>21</v>
       </c>
       <c r="B134" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C134">
         <v>2020</v>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="E134" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F134" s="2">
         <v>6</v>
@@ -3147,7 +3147,7 @@
         <v>21</v>
       </c>
       <c r="B135" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C135">
         <v>2011</v>
@@ -3156,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F135" s="2">
         <v>31</v>
@@ -3167,7 +3167,7 @@
         <v>21</v>
       </c>
       <c r="B136" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C136">
         <v>2011</v>
@@ -3176,7 +3176,7 @@
         <v>2</v>
       </c>
       <c r="E136" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F136" s="2">
         <v>33</v>
@@ -3187,7 +3187,7 @@
         <v>21</v>
       </c>
       <c r="B137" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C137">
         <v>2012</v>
@@ -3196,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F137" s="2">
         <v>30</v>
@@ -3207,7 +3207,7 @@
         <v>21</v>
       </c>
       <c r="B138" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C138">
         <v>2012</v>
@@ -3216,7 +3216,7 @@
         <v>2</v>
       </c>
       <c r="E138" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F138" s="2">
         <v>35</v>
@@ -3227,7 +3227,7 @@
         <v>21</v>
       </c>
       <c r="B139" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C139">
         <v>2013</v>
@@ -3236,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F139" s="2">
         <v>36</v>
@@ -3247,7 +3247,7 @@
         <v>21</v>
       </c>
       <c r="B140" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C140">
         <v>2013</v>
@@ -3256,7 +3256,7 @@
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F140" s="2">
         <v>37</v>
@@ -3267,7 +3267,7 @@
         <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C141">
         <v>2014</v>
@@ -3276,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F141" s="2">
         <v>33</v>
@@ -3287,7 +3287,7 @@
         <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C142">
         <v>2014</v>
@@ -3296,7 +3296,7 @@
         <v>2</v>
       </c>
       <c r="E142" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F142" s="2">
         <v>37</v>
@@ -3307,7 +3307,7 @@
         <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C143">
         <v>2015</v>
@@ -3316,7 +3316,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F143" s="2">
         <v>38</v>
@@ -3327,7 +3327,7 @@
         <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C144">
         <v>2015</v>
@@ -3336,7 +3336,7 @@
         <v>2</v>
       </c>
       <c r="E144" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F144" s="2">
         <v>40</v>
@@ -3347,7 +3347,7 @@
         <v>21</v>
       </c>
       <c r="B145" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C145">
         <v>2016</v>
@@ -3356,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F145" s="2">
         <v>38</v>
@@ -3367,7 +3367,7 @@
         <v>21</v>
       </c>
       <c r="B146" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C146">
         <v>2016</v>
@@ -3376,7 +3376,7 @@
         <v>2</v>
       </c>
       <c r="E146" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F146" s="2">
         <v>40</v>
@@ -3387,7 +3387,7 @@
         <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C147">
         <v>2017</v>
@@ -3396,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F147" s="2">
         <v>45</v>
@@ -3407,7 +3407,7 @@
         <v>21</v>
       </c>
       <c r="B148" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C148">
         <v>2017</v>
@@ -3416,7 +3416,7 @@
         <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F148" s="2">
         <v>45</v>
@@ -3427,7 +3427,7 @@
         <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C149">
         <v>2018</v>
@@ -3436,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F149" s="2">
         <v>43</v>
@@ -3447,7 +3447,7 @@
         <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C150">
         <v>2018</v>
@@ -3456,7 +3456,7 @@
         <v>2</v>
       </c>
       <c r="E150" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F150" s="2">
         <v>40</v>
@@ -3467,7 +3467,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C151">
         <v>2019</v>
@@ -3476,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F151" s="2">
         <v>43</v>
@@ -3487,7 +3487,7 @@
         <v>21</v>
       </c>
       <c r="B152" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C152">
         <v>2019</v>
@@ -3496,7 +3496,7 @@
         <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F152" s="2">
         <v>42</v>
@@ -3507,7 +3507,7 @@
         <v>21</v>
       </c>
       <c r="B153" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C153">
         <v>2020</v>
@@ -3516,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F153" s="2">
         <v>38</v>
@@ -3527,7 +3527,7 @@
         <v>21</v>
       </c>
       <c r="B154" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C154">
         <v>2020</v>
@@ -3536,7 +3536,7 @@
         <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F154" s="2">
         <v>42</v>
